--- a/wildwood-xlsx-data/survey1.xlsx
+++ b/wildwood-xlsx-data/survey1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kswan\Desktop\Year 3 Semester 1\Artificial Intelligence\AI course programming\Projects\project 2\wildwood-csv-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kswan\Desktop\Year 3 Semester 1\Artificial Intelligence\AI course programming\Projects\project 2\wildwood-xlsx-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EA60B55-11E7-48CE-B09A-99316252E28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC7D38-90D0-475B-8BE0-D9A5AEE92D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey1" sheetId="1" r:id="rId1"/>
@@ -559,7 +559,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1393,14 +1393,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DE110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="41.26953125" customWidth="1"/>
+    <col min="31" max="31" width="23.1796875" customWidth="1"/>
+    <col min="36" max="36" width="33" customWidth="1"/>
+    <col min="51" max="51" width="26.453125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A1" t="s">

--- a/wildwood-xlsx-data/survey1.xlsx
+++ b/wildwood-xlsx-data/survey1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kswan\Desktop\Year 3 Semester 1\Artificial Intelligence\AI course programming\Projects\project 2\wildwood-xlsx-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC7D38-90D0-475B-8BE0-D9A5AEE92D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE12CAE1-C65B-4816-BC41-7038D99582B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey1" sheetId="1" r:id="rId1"/>
@@ -1037,8 +1037,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1394,357 +1395,456 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DE110"/>
+  <dimension ref="A1:DF110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CC7" sqref="CC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="28.1796875" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="27.7265625" customWidth="1"/>
-    <col min="6" max="6" width="19.54296875" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" customWidth="1"/>
-    <col min="8" max="8" width="17.36328125" customWidth="1"/>
-    <col min="9" max="9" width="41.26953125" customWidth="1"/>
-    <col min="31" max="31" width="23.1796875" customWidth="1"/>
-    <col min="36" max="36" width="33" customWidth="1"/>
-    <col min="51" max="51" width="26.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="60.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="40.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="67.90625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.08984375" customWidth="1"/>
+    <col min="29" max="29" width="24.36328125" customWidth="1"/>
+    <col min="30" max="30" width="52.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="56.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="37.26953125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="50.90625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="43.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="53.26953125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="45.90625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="47.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="45.6328125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="48.1796875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="41" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="43.08984375" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="50.08984375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="39" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="50.08984375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="39" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="47.08984375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="79.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="52.36328125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="39" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="87.54296875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="33.90625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="36" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="59.6328125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="40.36328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="64.36328125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+    <row r="1" spans="1:110" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="DF1" s="1"/>
     </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2073,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2402,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2731,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3060,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3389,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3718,7 +3818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4047,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4376,7 +4476,7 @@
         <v>3.3333333E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4705,7 +4805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5034,7 +5134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -5363,7 +5463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -5692,7 +5792,7 @@
         <v>6.6666666999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>16</v>
       </c>
@@ -6021,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>18</v>
       </c>
@@ -6350,7 +6450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:110" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>19</v>
       </c>
@@ -37607,5 +37707,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/wildwood-xlsx-data/survey1.xlsx
+++ b/wildwood-xlsx-data/survey1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kswan\Desktop\Year 3 Semester 1\Artificial Intelligence\AI course programming\Projects\project 2\wildwood-xlsx-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE12CAE1-C65B-4816-BC41-7038D99582B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FC7D38-90D0-475B-8BE0-D9A5AEE92D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey1" sheetId="1" r:id="rId1"/>
@@ -1037,9 +1037,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1395,456 +1394,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DF110"/>
+  <dimension ref="A1:DE110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AT1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CC7" sqref="CC7"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.36328125" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="60.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="40.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="44.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="67.90625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="35.90625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.08984375" customWidth="1"/>
-    <col min="29" max="29" width="24.36328125" customWidth="1"/>
-    <col min="30" max="30" width="52.26953125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="56.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="43.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="37.26953125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="50.90625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="43.90625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="40.36328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="53.26953125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="45.90625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="47.7265625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="31.6328125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="48.1796875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="41" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="36.36328125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="43.08984375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="46.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="50.08984375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="39" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="50.08984375" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="39" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="47.08984375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="79.81640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="52.36328125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="39" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="30.7265625" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="87.54296875" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="33.90625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="36" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="59.6328125" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="40.36328125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="64.36328125" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="24.6328125" customWidth="1"/>
+    <col min="5" max="5" width="27.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19.54296875" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" customWidth="1"/>
+    <col min="9" max="9" width="41.26953125" customWidth="1"/>
+    <col min="31" max="31" width="23.1796875" customWidth="1"/>
+    <col min="36" max="36" width="33" customWidth="1"/>
+    <col min="51" max="51" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:109" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BJ1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BK1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BL1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BM1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BN1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BO1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BP1" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BQ1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BR1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BS1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BT1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BU1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BV1" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BW1" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BX1" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BY1" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="BZ1" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CA1" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CB1" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CC1" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CD1" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CE1" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CF1" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CG1" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CH1" t="s">
         <v>85</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CI1" t="s">
         <v>86</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CJ1" t="s">
         <v>87</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CK1" t="s">
         <v>88</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CL1" t="s">
         <v>89</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CM1" t="s">
         <v>90</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CN1" t="s">
         <v>91</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CO1" t="s">
         <v>92</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CP1" t="s">
         <v>93</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CQ1" t="s">
         <v>94</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CR1" t="s">
         <v>95</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CS1" t="s">
         <v>96</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CT1" t="s">
         <v>97</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CU1" t="s">
         <v>98</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CV1" t="s">
         <v>99</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CW1" t="s">
         <v>100</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CX1" t="s">
         <v>101</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CY1" t="s">
         <v>102</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="CZ1" t="s">
         <v>103</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DA1" t="s">
         <v>104</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DB1" t="s">
         <v>105</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DC1" t="s">
         <v>106</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DD1" t="s">
         <v>107</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DE1" t="s">
         <v>108</v>
       </c>
-      <c r="DF1" s="1"/>
     </row>
-    <row r="2" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
@@ -2173,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
@@ -2502,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
@@ -2831,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3160,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3489,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
@@ -3818,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4147,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
@@ -4476,7 +4376,7 @@
         <v>3.3333333E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4805,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
@@ -5134,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
@@ -5463,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
@@ -5792,7 +5692,7 @@
         <v>6.6666666999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>16</v>
       </c>
@@ -6121,7 +6021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>18</v>
       </c>
@@ -6450,7 +6350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:110" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:109" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>19</v>
       </c>
@@ -37707,6 +37607,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>